--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value477.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value477.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9985173731193466</v>
+        <v>1.003483057022095</v>
       </c>
       <c r="B1">
-        <v>1.690264439919641</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>4.21910722298645</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.780228496419863</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.03989479395176</v>
+        <v>1.088807106018066</v>
       </c>
     </row>
   </sheetData>
